--- a/data/spuibeheer/extern/verwerkt_in_excel/os_Ijzer_2021.xlsx
+++ b/data/spuibeheer/extern/verwerkt_in_excel/os_Ijzer_2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Maart" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4601" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4600" uniqueCount="256">
   <si>
     <t>Waterpeil aanpassingen IJzer</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>2x0,20</t>
-  </si>
-  <si>
-    <t>18/00</t>
   </si>
   <si>
     <t>3,21</t>
@@ -1445,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1997,11 +1994,11 @@
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="23"/>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="22">
+        <v>0.75</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>50</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>30</v>
@@ -2079,13 +2076,13 @@
         <v>23</v>
       </c>
       <c r="K22" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="L22" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>52</v>
       </c>
       <c r="N22" s="23"/>
     </row>
@@ -2103,13 +2100,13 @@
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="25" t="s">
         <v>53</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="25" t="s">
-        <v>54</v>
       </c>
       <c r="L23" s="26" t="s">
         <v>23</v>
@@ -2161,13 +2158,13 @@
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J25" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L25" s="26" t="s">
         <v>23</v>
@@ -2191,13 +2188,13 @@
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="L26" s="26" t="s">
         <v>23</v>
@@ -2297,13 +2294,13 @@
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
       <c r="I29" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="25" t="s">
         <v>55</v>
-      </c>
-      <c r="J29" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="25" t="s">
-        <v>56</v>
       </c>
       <c r="L29" s="26" t="s">
         <v>23</v>
@@ -2333,13 +2330,13 @@
         <v>23</v>
       </c>
       <c r="K30" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="26" t="s">
         <v>58</v>
-      </c>
-      <c r="L30" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="26" t="s">
-        <v>59</v>
       </c>
       <c r="N30" s="23"/>
     </row>
@@ -2355,7 +2352,7 @@
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J31" s="26" t="s">
         <v>23</v>
@@ -2385,13 +2382,13 @@
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
       <c r="I32" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J32" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L32" s="26" t="s">
         <v>23</v>
@@ -2455,7 +2452,7 @@
         <v>23</v>
       </c>
       <c r="M34" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N34" s="23"/>
     </row>
@@ -2480,7 +2477,7 @@
         <v>31</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I35" s="25" t="s">
         <v>33</v>
@@ -2546,7 +2543,7 @@
         <v>31</v>
       </c>
       <c r="H37" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I37" s="25" t="s">
         <v>26</v>
@@ -2611,13 +2608,13 @@
         <v>23</v>
       </c>
       <c r="K39" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M39" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="L39" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M39" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="N39" s="23"/>
     </row>
@@ -2662,7 +2659,7 @@
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I41" s="29"/>
       <c r="J41" s="26" t="s">
@@ -2687,13 +2684,13 @@
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J42" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K42" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L42" s="26" t="s">
         <v>23</v>
@@ -2727,7 +2724,7 @@
       </c>
       <c r="H43" s="23"/>
       <c r="I43" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J43" s="26" t="s">
         <v>23</v>
@@ -2751,13 +2748,13 @@
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J44" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K44" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L44" s="26" t="s">
         <v>23</v>
@@ -2775,7 +2772,7 @@
         <v>0.75</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -2785,7 +2782,7 @@
         <v>34</v>
       </c>
       <c r="I45" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J45" s="26" t="s">
         <v>23</v>
@@ -2845,13 +2842,13 @@
         <v>23</v>
       </c>
       <c r="K47" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="L47" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="L47" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M47" s="26" t="s">
-        <v>67</v>
       </c>
       <c r="N47" s="23"/>
     </row>
@@ -2963,7 +2960,7 @@
         <v>23</v>
       </c>
       <c r="M51" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N51" s="27" t="s">
         <v>25</v>
@@ -2981,13 +2978,13 @@
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="J52" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="L52" s="26" t="s">
         <v>23</v>
@@ -3009,13 +3006,13 @@
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J53" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K53" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L53" s="26" t="s">
         <v>23</v>
@@ -3048,10 +3045,10 @@
         <v>31</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I54" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J54" s="26" t="s">
         <v>23</v>
@@ -3111,7 +3108,7 @@
         <v>23</v>
       </c>
       <c r="K56" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L56" s="26" t="s">
         <v>23</v>
@@ -3139,7 +3136,7 @@
         <v>23</v>
       </c>
       <c r="K57" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L57" s="26" t="s">
         <v>23</v>
@@ -3161,13 +3158,13 @@
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
       <c r="I58" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J58" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K58" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L58" s="26" t="s">
         <v>23</v>
@@ -3191,7 +3188,7 @@
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
       <c r="I59" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J59" s="26" t="s">
         <v>23</v>
@@ -3249,7 +3246,7 @@
         <v>23</v>
       </c>
       <c r="K61" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L61" s="26" t="s">
         <v>23</v>
@@ -3271,7 +3268,7 @@
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
       <c r="I62" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J62" s="26" t="s">
         <v>23</v>
@@ -3367,7 +3364,7 @@
         <v>23</v>
       </c>
       <c r="M65" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N65" s="23"/>
     </row>
@@ -3385,19 +3382,19 @@
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
       <c r="I66" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J66" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K66" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L66" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M66" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N66" s="23"/>
     </row>
@@ -3419,7 +3416,7 @@
         <v>23</v>
       </c>
       <c r="K67" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L67" s="26" t="s">
         <v>23</v>
@@ -3453,7 +3450,7 @@
         <v>23</v>
       </c>
       <c r="M68" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N68" s="27" t="s">
         <v>38</v>
@@ -3558,7 +3555,7 @@
       <c r="F72" s="23"/>
       <c r="G72" s="23"/>
       <c r="H72" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I72" s="25" t="s">
         <v>33</v>
@@ -3591,7 +3588,7 @@
         <v>23</v>
       </c>
       <c r="K73" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L73" s="26" t="s">
         <v>23</v>
@@ -3615,7 +3612,7 @@
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
       <c r="I74" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J74" s="26" t="s">
         <v>23</v>
@@ -3627,7 +3624,7 @@
         <v>23</v>
       </c>
       <c r="M74" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N74" s="27" t="s">
         <v>25</v>
@@ -3653,7 +3650,7 @@
         <v>23</v>
       </c>
       <c r="K75" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L75" s="26" t="s">
         <v>23</v>
@@ -3684,7 +3681,7 @@
         <v>31</v>
       </c>
       <c r="H76" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I76" s="25" t="s">
         <v>26</v>
@@ -3753,7 +3750,7 @@
         <v>23</v>
       </c>
       <c r="M78" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N78" s="27" t="s">
         <v>25</v>
@@ -3783,7 +3780,7 @@
         <v>33</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J79" s="26" t="s">
         <v>23</v>
@@ -3899,7 +3896,7 @@
       </c>
       <c r="J83" s="23"/>
       <c r="K83" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L83" s="23"/>
       <c r="M83" s="26" t="s">
@@ -3919,13 +3916,13 @@
       <c r="G84" s="23"/>
       <c r="H84" s="23"/>
       <c r="I84" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J84" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K84" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L84" s="26" t="s">
         <v>23</v>
@@ -3973,7 +3970,7 @@
         <v>0.75</v>
       </c>
       <c r="C86" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D86" s="28" t="s">
         <v>30</v>
@@ -4047,7 +4044,7 @@
       <c r="G88" s="23"/>
       <c r="H88" s="23"/>
       <c r="I88" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J88" s="26" t="s">
         <v>23</v>
@@ -4083,7 +4080,7 @@
         <v>23</v>
       </c>
       <c r="K89" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L89" s="26" t="s">
         <v>23</v>
@@ -4099,7 +4096,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C90" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D90" s="28" t="s">
         <v>30</v>
@@ -4171,7 +4168,7 @@
       <c r="G92" s="23"/>
       <c r="H92" s="23"/>
       <c r="I92" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J92" s="26" t="s">
         <v>23</v>
@@ -4210,10 +4207,10 @@
         <v>31</v>
       </c>
       <c r="H93" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I93" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J93" s="26" t="s">
         <v>23</v>
@@ -4237,19 +4234,19 @@
       <c r="G94" s="23"/>
       <c r="H94" s="23"/>
       <c r="I94" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="J94" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K94" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="J94" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K94" s="25" t="s">
-        <v>84</v>
-      </c>
       <c r="L94" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M94" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N94" s="23"/>
     </row>
@@ -4297,7 +4294,7 @@
       <c r="G96" s="23"/>
       <c r="H96" s="23"/>
       <c r="I96" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J96" s="26" t="s">
         <v>23</v>
@@ -4327,19 +4324,19 @@
       <c r="G97" s="23"/>
       <c r="H97" s="23"/>
       <c r="I97" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J97" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K97" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="L97" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M97" s="26" t="s">
         <v>86</v>
-      </c>
-      <c r="L97" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M97" s="26" t="s">
-        <v>87</v>
       </c>
       <c r="N97" s="23"/>
     </row>
@@ -4349,7 +4346,7 @@
         <v>0.2986111111111111</v>
       </c>
       <c r="C98" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D98" s="28" t="s">
         <v>30</v>
@@ -4386,7 +4383,7 @@
       <c r="F99" s="23"/>
       <c r="G99" s="23"/>
       <c r="H99" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I99" s="25" t="s">
         <v>34</v>
@@ -4413,13 +4410,13 @@
       <c r="G100" s="23"/>
       <c r="H100" s="23"/>
       <c r="I100" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J100" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K100" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L100" s="26" t="s">
         <v>23</v>
@@ -4513,7 +4510,7 @@
         <v>26</v>
       </c>
       <c r="I103" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J103" s="26" t="s">
         <v>23</v>
@@ -4537,13 +4534,13 @@
       <c r="G104" s="23"/>
       <c r="H104" s="23"/>
       <c r="I104" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J104" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K104" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L104" s="26" t="s">
         <v>23</v>
@@ -4569,19 +4566,19 @@
       <c r="G105" s="23"/>
       <c r="H105" s="23"/>
       <c r="I105" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J105" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K105" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="L105" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M105" s="26" t="s">
         <v>90</v>
-      </c>
-      <c r="J105" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K105" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="L105" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M105" s="26" t="s">
-        <v>91</v>
       </c>
       <c r="N105" s="27" t="s">
         <v>25</v>
@@ -4633,7 +4630,7 @@
       <c r="G107" s="23"/>
       <c r="H107" s="23"/>
       <c r="I107" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J107" s="26" t="s">
         <v>23</v>
@@ -4657,19 +4654,19 @@
       <c r="G108" s="23"/>
       <c r="H108" s="23"/>
       <c r="I108" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="J108" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K108" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="J108" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K108" s="25" t="s">
+      <c r="L108" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M108" s="26" t="s">
         <v>94</v>
-      </c>
-      <c r="L108" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M108" s="26" t="s">
-        <v>95</v>
       </c>
       <c r="N108" s="23"/>
     </row>
@@ -4685,13 +4682,13 @@
       <c r="G109" s="23"/>
       <c r="H109" s="23"/>
       <c r="I109" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J109" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K109" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L109" s="26" t="s">
         <v>23</v>
@@ -4715,19 +4712,19 @@
       <c r="G110" s="23"/>
       <c r="H110" s="23"/>
       <c r="I110" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J110" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K110" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L110" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M110" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N110" s="28" t="s">
         <v>25</v>
@@ -4754,7 +4751,7 @@
         <v>31</v>
       </c>
       <c r="H111" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I111" s="25" t="s">
         <v>32</v>
@@ -4793,7 +4790,7 @@
         <v>23</v>
       </c>
       <c r="M112" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N112" s="31" t="s">
         <v>38</v>
@@ -4813,19 +4810,19 @@
       <c r="G113" s="23"/>
       <c r="H113" s="23"/>
       <c r="I113" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J113" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K113" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L113" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M113" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N113" s="28" t="s">
         <v>25</v>
@@ -4843,7 +4840,7 @@
       <c r="G114" s="23"/>
       <c r="H114" s="23"/>
       <c r="I114" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J114" s="26" t="s">
         <v>23</v>
@@ -4867,13 +4864,13 @@
       <c r="G115" s="23"/>
       <c r="H115" s="23"/>
       <c r="I115" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J115" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K115" s="25" t="s">
         <v>98</v>
-      </c>
-      <c r="J115" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K115" s="25" t="s">
-        <v>99</v>
       </c>
       <c r="L115" s="26" t="s">
         <v>23</v>
@@ -5011,19 +5008,19 @@
       <c r="G120" s="23"/>
       <c r="H120" s="23"/>
       <c r="I120" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J120" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K120" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L120" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M120" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N120" s="28" t="s">
         <v>25</v>
@@ -5050,10 +5047,10 @@
         <v>31</v>
       </c>
       <c r="H121" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I121" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J121" s="26" t="s">
         <v>23</v>
@@ -5077,19 +5074,19 @@
       <c r="G122" s="23"/>
       <c r="H122" s="23"/>
       <c r="I122" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="J122" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K122" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="J122" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K122" s="25" t="s">
+      <c r="L122" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M122" s="26" t="s">
         <v>102</v>
-      </c>
-      <c r="L122" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M122" s="26" t="s">
-        <v>103</v>
       </c>
       <c r="N122" s="23"/>
     </row>
@@ -5111,7 +5108,7 @@
         <v>23</v>
       </c>
       <c r="K123" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L123" s="26" t="s">
         <v>23</v>
@@ -5129,7 +5126,7 @@
         <v>0.75</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D124" s="28" t="s">
         <v>30</v>
@@ -5153,7 +5150,7 @@
         <v>23</v>
       </c>
       <c r="K124" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L124" s="26" t="s">
         <v>23</v>
@@ -5183,13 +5180,13 @@
         <v>23</v>
       </c>
       <c r="K125" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L125" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M125" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N125" s="23"/>
     </row>
@@ -5243,13 +5240,13 @@
         <v>23</v>
       </c>
       <c r="K127" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L127" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M127" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N127" s="28" t="s">
         <v>25</v>
@@ -5267,19 +5264,19 @@
       <c r="G128" s="23"/>
       <c r="H128" s="23"/>
       <c r="I128" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J128" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K128" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="L128" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M128" s="26" t="s">
         <v>107</v>
-      </c>
-      <c r="L128" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M128" s="26" t="s">
-        <v>108</v>
       </c>
       <c r="N128" s="23"/>
     </row>
@@ -5304,7 +5301,7 @@
         <v>31</v>
       </c>
       <c r="H129" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I129" s="25" t="s">
         <v>26</v>
@@ -5331,13 +5328,13 @@
       <c r="G130" s="23"/>
       <c r="H130" s="23"/>
       <c r="I130" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J130" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K130" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L130" s="26" t="s">
         <v>23</v>
@@ -5365,7 +5362,7 @@
         <v>23</v>
       </c>
       <c r="K131" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L131" s="26" t="s">
         <v>23</v>
@@ -5398,7 +5395,7 @@
         <v>31</v>
       </c>
       <c r="H132" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I132" s="25" t="s">
         <v>32</v>
@@ -5407,13 +5404,13 @@
         <v>23</v>
       </c>
       <c r="K132" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="L132" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M132" s="26" t="s">
         <v>111</v>
-      </c>
-      <c r="L132" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M132" s="26" t="s">
-        <v>112</v>
       </c>
       <c r="N132" s="23"/>
     </row>
@@ -5431,13 +5428,13 @@
       <c r="G133" s="23"/>
       <c r="H133" s="23"/>
       <c r="I133" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J133" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K133" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L133" s="26" t="s">
         <v>23</v>
@@ -5495,13 +5492,13 @@
         <v>23</v>
       </c>
       <c r="K135" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="L135" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M135" s="26" t="s">
         <v>114</v>
-      </c>
-      <c r="L135" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M135" s="26" t="s">
-        <v>115</v>
       </c>
       <c r="N135" s="31" t="s">
         <v>25</v>
@@ -5513,7 +5510,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C136" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D136" s="28" t="s">
         <v>30</v>
@@ -5531,7 +5528,7 @@
         <v>46</v>
       </c>
       <c r="I136" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J136" s="26" t="s">
         <v>23</v>
@@ -5561,7 +5558,7 @@
         <v>23</v>
       </c>
       <c r="K137" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L137" s="26" t="s">
         <v>23</v>
@@ -5594,7 +5591,7 @@
         <v>31</v>
       </c>
       <c r="H138" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I138" s="25" t="s">
         <v>44</v>
@@ -5683,19 +5680,19 @@
       <c r="G141" s="23"/>
       <c r="H141" s="23"/>
       <c r="I141" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J141" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K141" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L141" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M141" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N141" s="31" t="s">
         <v>25</v>
@@ -5707,7 +5704,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C142" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D142" s="28" t="s">
         <v>30</v>
@@ -5722,7 +5719,7 @@
         <v>31</v>
       </c>
       <c r="H142" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I142" s="25" t="s">
         <v>29</v>
@@ -5755,13 +5752,13 @@
         <v>23</v>
       </c>
       <c r="K143" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L143" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M143" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N143" s="23"/>
     </row>
@@ -5777,13 +5774,13 @@
       <c r="G144" s="23"/>
       <c r="H144" s="23"/>
       <c r="I144" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J144" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K144" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L144" s="26" t="s">
         <v>23</v>
@@ -5801,7 +5798,7 @@
         <v>0.75</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D145" s="28" t="s">
         <v>30</v>
@@ -5819,7 +5816,7 @@
         <v>44</v>
       </c>
       <c r="I145" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J145" s="26" t="s">
         <v>23</v>
@@ -5843,19 +5840,19 @@
       <c r="G146" s="23"/>
       <c r="H146" s="23"/>
       <c r="I146" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J146" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K146" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L146" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M146" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N146" s="23"/>
     </row>
@@ -5871,19 +5868,19 @@
       <c r="G147" s="23"/>
       <c r="H147" s="23"/>
       <c r="I147" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J147" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K147" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L147" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M147" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N147" s="23"/>
     </row>
@@ -5899,11 +5896,11 @@
       <c r="G148" s="23"/>
       <c r="H148" s="23"/>
       <c r="I148" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J148" s="23"/>
       <c r="K148" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L148" s="23"/>
       <c r="M148" s="26" t="s">
@@ -5967,7 +5964,7 @@
         <v>23</v>
       </c>
       <c r="M150" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N150" s="31" t="s">
         <v>25</v>
@@ -5979,7 +5976,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C151" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D151" s="28" t="s">
         <v>30</v>
@@ -5997,7 +5994,7 @@
         <v>22</v>
       </c>
       <c r="I151" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J151" s="26" t="s">
         <v>23</v>
@@ -6021,19 +6018,19 @@
       <c r="G152" s="23"/>
       <c r="H152" s="23"/>
       <c r="I152" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J152" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K152" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="L152" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M152" s="26" t="s">
         <v>121</v>
-      </c>
-      <c r="L152" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M152" s="26" t="s">
-        <v>122</v>
       </c>
       <c r="N152" s="23"/>
     </row>
@@ -6049,19 +6046,19 @@
       <c r="G153" s="23"/>
       <c r="H153" s="23"/>
       <c r="I153" s="25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J153" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K153" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L153" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M153" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N153" s="23"/>
     </row>
@@ -6077,13 +6074,13 @@
       <c r="G154" s="23"/>
       <c r="H154" s="23"/>
       <c r="I154" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J154" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K154" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L154" s="26" t="s">
         <v>23</v>
@@ -6119,7 +6116,7 @@
         <v>33</v>
       </c>
       <c r="I155" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J155" s="26" t="s">
         <v>23</v>
@@ -6143,19 +6140,19 @@
       <c r="G156" s="23"/>
       <c r="H156" s="23"/>
       <c r="I156" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J156" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K156" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L156" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M156" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N156" s="31" t="s">
         <v>25</v>
@@ -6173,13 +6170,13 @@
       <c r="G157" s="23"/>
       <c r="H157" s="23"/>
       <c r="I157" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J157" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K157" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L157" s="26" t="s">
         <v>23</v>
@@ -6203,13 +6200,13 @@
       <c r="G158" s="23"/>
       <c r="H158" s="23"/>
       <c r="I158" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J158" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K158" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L158" s="26" t="s">
         <v>23</v>
@@ -6233,7 +6230,7 @@
       <c r="G159" s="23"/>
       <c r="H159" s="23"/>
       <c r="I159" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J159" s="26" t="s">
         <v>23</v>
@@ -6245,7 +6242,7 @@
         <v>23</v>
       </c>
       <c r="M159" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N159" s="31" t="s">
         <v>25</v>
@@ -6272,7 +6269,7 @@
         <v>31</v>
       </c>
       <c r="H160" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I160" s="29"/>
       <c r="J160" s="26" t="s">
@@ -6297,7 +6294,7 @@
       <c r="G161" s="23"/>
       <c r="H161" s="23"/>
       <c r="I161" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J161" s="26" t="s">
         <v>23</v>
@@ -6327,13 +6324,13 @@
         <v>23</v>
       </c>
       <c r="K162" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="L162" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M162" s="26" t="s">
         <v>125</v>
-      </c>
-      <c r="L162" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M162" s="26" t="s">
-        <v>126</v>
       </c>
       <c r="N162" s="23"/>
     </row>
@@ -6349,13 +6346,13 @@
       <c r="G163" s="23"/>
       <c r="H163" s="23"/>
       <c r="I163" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J163" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K163" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L163" s="26" t="s">
         <v>23</v>
@@ -6388,7 +6385,7 @@
         <v>31</v>
       </c>
       <c r="H164" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I164" s="29"/>
       <c r="J164" s="26" t="s">
@@ -6427,7 +6424,7 @@
         <v>23</v>
       </c>
       <c r="M165" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N165" s="28" t="s">
         <v>25</v>
@@ -6459,7 +6456,7 @@
         <v>23</v>
       </c>
       <c r="M166" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N166" s="28" t="s">
         <v>38</v>
@@ -6489,7 +6486,7 @@
         <v>23</v>
       </c>
       <c r="M167" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N167" s="28" t="s">
         <v>25</v>
@@ -6507,13 +6504,13 @@
       <c r="G168" s="23"/>
       <c r="H168" s="23"/>
       <c r="I168" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J168" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K168" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L168" s="26" t="s">
         <v>23</v>
@@ -6535,19 +6532,19 @@
       <c r="G169" s="23"/>
       <c r="H169" s="23"/>
       <c r="I169" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J169" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K169" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L169" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M169" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N169" s="28" t="s">
         <v>38</v>
@@ -6589,13 +6586,13 @@
       <c r="G171" s="23"/>
       <c r="H171" s="32"/>
       <c r="I171" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J171" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K171" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L171" s="26" t="s">
         <v>23</v>
@@ -6625,13 +6622,13 @@
         <v>23</v>
       </c>
       <c r="K172" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L172" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M172" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N172" s="23"/>
     </row>
@@ -6655,7 +6652,7 @@
         <v>23</v>
       </c>
       <c r="K173" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L173" s="26" t="s">
         <v>23</v>
@@ -6677,13 +6674,13 @@
       <c r="G174" s="23"/>
       <c r="H174" s="23"/>
       <c r="I174" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J174" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K174" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L174" s="26" t="s">
         <v>23</v>
@@ -6701,7 +6698,7 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="C175" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D175" s="23"/>
       <c r="E175" s="23"/>
@@ -6733,7 +6730,7 @@
         <v>33</v>
       </c>
       <c r="I176" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J176" s="26" t="s">
         <v>23</v>
@@ -6757,19 +6754,19 @@
       <c r="G177" s="23"/>
       <c r="H177" s="23"/>
       <c r="I177" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J177" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K177" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L177" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M177" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N177" s="28" t="s">
         <v>25</v>
@@ -6793,13 +6790,13 @@
         <v>23</v>
       </c>
       <c r="K178" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="L178" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M178" s="26" t="s">
         <v>131</v>
-      </c>
-      <c r="L178" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M178" s="26" t="s">
-        <v>132</v>
       </c>
       <c r="N178" s="23"/>
     </row>
@@ -6865,7 +6862,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D181" s="23"/>
       <c r="E181" s="23"/>
@@ -6907,7 +6904,7 @@
         <v>23</v>
       </c>
       <c r="M182" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N182" s="28" t="s">
         <v>25</v>
@@ -6962,7 +6959,7 @@
         <v>31</v>
       </c>
       <c r="H184" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I184" s="25" t="s">
         <v>29</v>
@@ -7023,7 +7020,7 @@
         <v>23</v>
       </c>
       <c r="K186" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L186" s="26" t="s">
         <v>23</v>
@@ -7039,7 +7036,7 @@
         <v>0.75</v>
       </c>
       <c r="C187" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D187" s="28" t="s">
         <v>30</v>
@@ -7111,13 +7108,13 @@
       <c r="G189" s="23"/>
       <c r="H189" s="23"/>
       <c r="I189" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J189" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K189" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L189" s="26" t="s">
         <v>23</v>
@@ -7175,13 +7172,13 @@
       <c r="G191" s="23"/>
       <c r="H191" s="23"/>
       <c r="I191" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J191" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K191" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L191" s="26" t="s">
         <v>23</v>
@@ -7205,15 +7202,15 @@
       <c r="G192" s="23"/>
       <c r="H192" s="23"/>
       <c r="I192" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J192" s="23"/>
       <c r="K192" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L192" s="23"/>
       <c r="M192" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N192" s="28" t="s">
         <v>25</v>
@@ -7225,7 +7222,7 @@
         <v>0.75</v>
       </c>
       <c r="C193" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D193" s="28" t="s">
         <v>30</v>
@@ -7311,7 +7308,7 @@
         <v>23</v>
       </c>
       <c r="M195" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N195" s="28" t="s">
         <v>25</v>
@@ -7335,7 +7332,7 @@
         <v>23</v>
       </c>
       <c r="K196" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L196" s="26" t="s">
         <v>23</v>
@@ -7351,14 +7348,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D197" s="29"/>
       <c r="E197" s="29"/>
       <c r="F197" s="29"/>
       <c r="G197" s="23"/>
       <c r="H197" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I197" s="25" t="s">
         <v>34</v>
@@ -7451,7 +7448,7 @@
         <v>23</v>
       </c>
       <c r="K200" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L200" s="26" t="s">
         <v>23</v>
@@ -7509,13 +7506,13 @@
       <c r="G202" s="23"/>
       <c r="H202" s="23"/>
       <c r="I202" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J202" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K202" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L202" s="26" t="s">
         <v>23</v>
@@ -7553,7 +7550,7 @@
         <v>23</v>
       </c>
       <c r="M203" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N203" s="28" t="s">
         <v>25</v>
@@ -7583,7 +7580,7 @@
         <v>32</v>
       </c>
       <c r="I204" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J204" s="26" t="s">
         <v>23</v>
@@ -7637,7 +7634,7 @@
       <c r="G206" s="23"/>
       <c r="H206" s="23"/>
       <c r="I206" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J206" s="26" t="s">
         <v>23</v>
@@ -7649,7 +7646,7 @@
         <v>23</v>
       </c>
       <c r="M206" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N206" s="28" t="s">
         <v>25</v>
@@ -7661,7 +7658,7 @@
         <v>0.75</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D207" s="28" t="s">
         <v>30</v>
@@ -7747,7 +7744,7 @@
         <v>23</v>
       </c>
       <c r="M209" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N209" s="28" t="s">
         <v>25</v>
@@ -7819,7 +7816,7 @@
         <v>23</v>
       </c>
       <c r="K212" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L212" s="26" t="s">
         <v>23</v>
@@ -7871,19 +7868,19 @@
       <c r="G214" s="23"/>
       <c r="H214" s="23"/>
       <c r="I214" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J214" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K214" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L214" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M214" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N214" s="23"/>
     </row>
@@ -7893,7 +7890,7 @@
         <v>0.75</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D215" s="28" t="s">
         <v>30</v>
@@ -7911,7 +7908,7 @@
         <v>29</v>
       </c>
       <c r="I215" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J215" s="26" t="s">
         <v>23</v>
@@ -7935,13 +7932,13 @@
       <c r="G216" s="23"/>
       <c r="H216" s="23"/>
       <c r="I216" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J216" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K216" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L216" s="26" t="s">
         <v>23</v>
@@ -7995,19 +7992,19 @@
       <c r="G218" s="23"/>
       <c r="H218" s="23"/>
       <c r="I218" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J218" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K218" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L218" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M218" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N218" s="23"/>
     </row>
@@ -8023,7 +8020,7 @@
       <c r="G219" s="23"/>
       <c r="H219" s="23"/>
       <c r="I219" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J219" s="26" t="s">
         <v>23</v>
@@ -8047,13 +8044,13 @@
       <c r="G220" s="23"/>
       <c r="H220" s="23"/>
       <c r="I220" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J220" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K220" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L220" s="26" t="s">
         <v>23</v>
@@ -8077,7 +8074,7 @@
       <c r="G221" s="23"/>
       <c r="H221" s="23"/>
       <c r="I221" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J221" s="26" t="s">
         <v>23</v>
@@ -8133,13 +8130,13 @@
       <c r="G223" s="23"/>
       <c r="H223" s="23"/>
       <c r="I223" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J223" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K223" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L223" s="26" t="s">
         <v>23</v>
@@ -8190,16 +8187,16 @@
         <v>22</v>
       </c>
       <c r="D225" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E225" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F225" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G225" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H225" s="28" t="s">
         <v>44</v>
@@ -8214,7 +8211,7 @@
       </c>
       <c r="M225" s="29"/>
       <c r="N225" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="226" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8283,19 +8280,19 @@
       <c r="G228" s="23"/>
       <c r="H228" s="23"/>
       <c r="I228" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J228" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K228" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L228" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M228" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N228" s="28" t="s">
         <v>25</v>
@@ -8307,7 +8304,7 @@
         <v>0.75</v>
       </c>
       <c r="C229" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D229" s="23"/>
       <c r="E229" s="23"/>
@@ -8319,7 +8316,7 @@
         <v>23</v>
       </c>
       <c r="K229" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L229" s="26" t="s">
         <v>23</v>
@@ -8363,7 +8360,7 @@
       <c r="G231" s="23"/>
       <c r="H231" s="23"/>
       <c r="I231" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J231" s="26" t="s">
         <v>23</v>
@@ -8375,7 +8372,7 @@
         <v>23</v>
       </c>
       <c r="M231" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N231" s="28" t="s">
         <v>38</v>
@@ -8399,13 +8396,13 @@
         <v>23</v>
       </c>
       <c r="K232" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L232" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M232" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N232" s="28" t="s">
         <v>25</v>
@@ -8417,19 +8414,19 @@
         <v>0.3125</v>
       </c>
       <c r="C233" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D233" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E233" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F233" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G233" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H233" s="23"/>
       <c r="I233" s="29"/>
@@ -8464,7 +8461,7 @@
       </c>
       <c r="M234" s="23"/>
       <c r="N234" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="235" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8485,7 +8482,7 @@
         <v>23</v>
       </c>
       <c r="K235" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L235" s="26" t="s">
         <v>23</v>
@@ -8507,13 +8504,13 @@
       <c r="G236" s="23"/>
       <c r="H236" s="23"/>
       <c r="I236" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J236" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K236" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L236" s="26" t="s">
         <v>23</v>
@@ -8559,19 +8556,19 @@
         <v>0.75</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D238" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E238" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F238" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G238" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H238" s="28" t="s">
         <v>33</v>
@@ -8583,7 +8580,7 @@
         <v>23</v>
       </c>
       <c r="K238" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L238" s="26" t="s">
         <v>23</v>
@@ -8607,19 +8604,19 @@
       <c r="G239" s="23"/>
       <c r="H239" s="23"/>
       <c r="I239" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J239" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K239" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L239" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M239" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N239" s="23"/>
     </row>
@@ -8641,7 +8638,7 @@
         <v>23</v>
       </c>
       <c r="K240" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L240" s="26" t="s">
         <v>23</v>
@@ -8665,13 +8662,13 @@
       <c r="G241" s="23"/>
       <c r="H241" s="23"/>
       <c r="I241" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J241" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K241" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L241" s="26" t="s">
         <v>23</v>
@@ -8707,7 +8704,7 @@
         <v>23</v>
       </c>
       <c r="M242" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N242" s="28" t="s">
         <v>25</v>
@@ -8725,13 +8722,13 @@
         <v>30</v>
       </c>
       <c r="E243" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F243" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G243" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H243" s="28" t="s">
         <v>26</v>
@@ -8789,7 +8786,7 @@
         <v>23</v>
       </c>
       <c r="K245" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L245" s="26" t="s">
         <v>23</v>
@@ -8838,19 +8835,19 @@
         <v>22</v>
       </c>
       <c r="D247" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E247" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F247" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G247" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H247" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I247" s="25" t="s">
         <v>29</v>
@@ -8889,7 +8886,7 @@
         <v>23</v>
       </c>
       <c r="M248" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N248" s="28" t="s">
         <v>25</v>
@@ -21434,7 +21431,7 @@
         <v>23</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N8" s="31" t="s">
         <v>38</v>
@@ -21452,19 +21449,19 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N9" s="23"/>
     </row>
@@ -21480,13 +21477,13 @@
         <v>30</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H10" s="28" t="s">
         <v>32</v>
@@ -21514,7 +21511,7 @@
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>23</v>
@@ -21538,13 +21535,13 @@
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L12" s="26" t="s">
         <v>23</v>
@@ -21566,13 +21563,13 @@
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L13" s="26" t="s">
         <v>23</v>
@@ -21581,7 +21578,7 @@
         <v>37</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -21590,19 +21587,19 @@
         <v>0.75</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="25" t="s">
@@ -21642,7 +21639,7 @@
         <v>23</v>
       </c>
       <c r="M15" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N15" s="31" t="s">
         <v>25</v>
@@ -21666,7 +21663,7 @@
         <v>23</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L16" s="26" t="s">
         <v>23</v>
@@ -21690,13 +21687,13 @@
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L17" s="26" t="s">
         <v>23</v>
@@ -21750,16 +21747,16 @@
         <v>30</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F19" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>26</v>
@@ -21768,13 +21765,13 @@
         <v>23</v>
       </c>
       <c r="K19" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="26" t="s">
         <v>150</v>
-      </c>
-      <c r="L19" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>151</v>
       </c>
       <c r="N19" s="23"/>
     </row>
@@ -21796,7 +21793,7 @@
         <v>23</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L20" s="26" t="s">
         <v>23</v>
@@ -21848,13 +21845,13 @@
         <v>30</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F22" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H22" s="28" t="s">
         <v>33</v>
@@ -21890,7 +21887,7 @@
         <v>23</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L23" s="26" t="s">
         <v>23</v>
@@ -21914,13 +21911,13 @@
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J24" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L24" s="26" t="s">
         <v>23</v>
@@ -21940,22 +21937,22 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F25" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="25" t="s">
         <v>44</v>
@@ -22012,13 +22009,13 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J27" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L27" s="26" t="s">
         <v>23</v>
@@ -22040,7 +22037,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
       <c r="I28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" s="26" t="s">
         <v>23</v>
@@ -22070,16 +22067,16 @@
         <v>30</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F29" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I29" s="29"/>
       <c r="J29" s="26" t="s">
@@ -22140,7 +22137,7 @@
         <v>23</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N31" s="31" t="s">
         <v>25</v>
@@ -22158,13 +22155,13 @@
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
       <c r="I32" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J32" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L32" s="26" t="s">
         <v>23</v>
@@ -22218,7 +22215,7 @@
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
       <c r="I34" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J34" s="26" t="s">
         <v>23</v>
@@ -22242,7 +22239,7 @@
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J35" s="26" t="s">
         <v>23</v>
@@ -22254,7 +22251,7 @@
         <v>23</v>
       </c>
       <c r="M35" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N35" s="31" t="s">
         <v>25</v>
@@ -22278,7 +22275,7 @@
         <v>23</v>
       </c>
       <c r="K36" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L36" s="26" t="s">
         <v>23</v>
@@ -22356,7 +22353,7 @@
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
       <c r="I39" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J39" s="26" t="s">
         <v>23</v>
@@ -22410,19 +22407,19 @@
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J41" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K41" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L41" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M41" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N41" s="23"/>
     </row>
@@ -22438,13 +22435,13 @@
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J42" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K42" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L42" s="26" t="s">
         <v>23</v>
@@ -22474,7 +22471,7 @@
         <v>23</v>
       </c>
       <c r="K43" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L43" s="26" t="s">
         <v>23</v>
@@ -22498,13 +22495,13 @@
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J44" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K44" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L44" s="26" t="s">
         <v>23</v>
@@ -22525,7 +22522,7 @@
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
       <c r="H45" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I45" s="25" t="s">
         <v>33</v>
@@ -22540,7 +22537,7 @@
         <v>23</v>
       </c>
       <c r="M45" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N45" s="31" t="s">
         <v>38</v>
@@ -22558,13 +22555,13 @@
         <v>30</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F46" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H46" s="23"/>
       <c r="I46" s="25" t="s">
@@ -22604,7 +22601,7 @@
         <v>23</v>
       </c>
       <c r="M47" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N47" s="31" t="s">
         <v>25</v>
@@ -22622,19 +22619,19 @@
         <v>30</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F48" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H48" s="28" t="s">
         <v>33</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J48" s="26" t="s">
         <v>23</v>
@@ -22658,13 +22655,13 @@
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J49" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K49" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L49" s="26" t="s">
         <v>23</v>
@@ -22702,7 +22699,7 @@
         <v>23</v>
       </c>
       <c r="M50" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N50" s="31" t="s">
         <v>25</v>
@@ -22720,19 +22717,19 @@
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J51" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K51" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L51" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M51" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N51" s="23"/>
     </row>
@@ -22748,16 +22745,16 @@
         <v>30</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F52" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I52" s="25" t="s">
         <v>34</v>
@@ -22784,13 +22781,13 @@
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J53" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K53" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L53" s="26" t="s">
         <v>23</v>
@@ -22814,19 +22811,19 @@
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
       <c r="I54" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J54" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K54" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L54" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M54" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N54" s="31" t="s">
         <v>25</v>
@@ -22850,7 +22847,7 @@
         <v>23</v>
       </c>
       <c r="K55" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L55" s="26" t="s">
         <v>23</v>
@@ -22866,19 +22863,19 @@
         <v>0.75</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F56" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H56" s="28" t="s">
         <v>44</v>
@@ -22910,7 +22907,7 @@
       </c>
       <c r="J57" s="23"/>
       <c r="K57" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L57" s="26" t="s">
         <v>23</v>
@@ -22976,7 +22973,7 @@
         <v>23</v>
       </c>
       <c r="M59" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N59" s="31" t="s">
         <v>25</v>
@@ -23000,7 +22997,7 @@
         <v>23</v>
       </c>
       <c r="K60" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L60" s="26" t="s">
         <v>23</v>
@@ -23022,13 +23019,13 @@
         <v>30</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F61" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G61" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H61" s="23"/>
       <c r="I61" s="25" t="s">
@@ -23140,16 +23137,16 @@
         <v>30</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F65" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G65" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I65" s="25" t="s">
         <v>33</v>
@@ -23182,13 +23179,13 @@
         <v>23</v>
       </c>
       <c r="K66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L66" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M66" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N66" s="23"/>
     </row>
@@ -23236,19 +23233,19 @@
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
       <c r="I68" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J68" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K68" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L68" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M68" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N68" s="31" t="s">
         <v>25</v>
@@ -23266,13 +23263,13 @@
         <v>30</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F69" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G69" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H69" s="23"/>
       <c r="I69" s="25" t="s">
@@ -23300,19 +23297,19 @@
       <c r="G70" s="23"/>
       <c r="H70" s="23"/>
       <c r="I70" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J70" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K70" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="L70" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M70" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="L70" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M70" s="26" t="s">
-        <v>161</v>
       </c>
       <c r="N70" s="23"/>
     </row>
@@ -23340,7 +23337,7 @@
         <v>23</v>
       </c>
       <c r="M71" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N71" s="31" t="s">
         <v>38</v>
@@ -23370,7 +23367,7 @@
         <v>23</v>
       </c>
       <c r="M72" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N72" s="31" t="s">
         <v>25</v>
@@ -23382,19 +23379,19 @@
         <v>0.75</v>
       </c>
       <c r="C73" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F73" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G73" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H73" s="28" t="s">
         <v>26</v>
@@ -23424,19 +23421,19 @@
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
       <c r="I74" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J74" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K74" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L74" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M74" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N74" s="23"/>
     </row>
@@ -23452,13 +23449,13 @@
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
       <c r="I75" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J75" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K75" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L75" s="26" t="s">
         <v>23</v>
@@ -23480,19 +23477,19 @@
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
       <c r="I76" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J76" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K76" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L76" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M76" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N76" s="31" t="s">
         <v>38</v>
@@ -23512,19 +23509,19 @@
       <c r="G77" s="23"/>
       <c r="H77" s="23"/>
       <c r="I77" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J77" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K77" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L77" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M77" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N77" s="31" t="s">
         <v>25</v>
@@ -23548,13 +23545,13 @@
         <v>23</v>
       </c>
       <c r="K78" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="L78" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" s="26" t="s">
         <v>164</v>
-      </c>
-      <c r="L78" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M78" s="26" t="s">
-        <v>165</v>
       </c>
       <c r="N78" s="23"/>
     </row>
@@ -23588,19 +23585,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C80" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D80" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E80" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F80" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G80" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="25" t="s">
@@ -23628,13 +23625,13 @@
       <c r="G81" s="23"/>
       <c r="H81" s="23"/>
       <c r="I81" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J81" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K81" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L81" s="26" t="s">
         <v>23</v>
@@ -23668,7 +23665,7 @@
         <v>23</v>
       </c>
       <c r="M82" s="26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N82" s="31" t="s">
         <v>38</v>
@@ -23698,7 +23695,7 @@
         <v>23</v>
       </c>
       <c r="M83" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N83" s="23"/>
     </row>
@@ -23714,13 +23711,13 @@
         <v>30</v>
       </c>
       <c r="E84" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F84" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G84" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H84" s="28" t="s">
         <v>26</v>
@@ -23730,7 +23727,7 @@
         <v>23</v>
       </c>
       <c r="K84" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L84" s="26" t="s">
         <v>23</v>
@@ -23772,13 +23769,13 @@
       <c r="G86" s="23"/>
       <c r="H86" s="23"/>
       <c r="I86" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J86" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K86" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L86" s="26" t="s">
         <v>23</v>
@@ -23800,13 +23797,13 @@
       <c r="G87" s="23"/>
       <c r="H87" s="23"/>
       <c r="I87" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J87" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K87" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L87" s="26" t="s">
         <v>23</v>
@@ -23844,7 +23841,7 @@
         <v>23</v>
       </c>
       <c r="M88" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N88" s="31" t="s">
         <v>25</v>
@@ -23892,13 +23889,13 @@
         <v>23</v>
       </c>
       <c r="K90" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="L90" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M90" s="26" t="s">
         <v>169</v>
-      </c>
-      <c r="L90" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M90" s="26" t="s">
-        <v>170</v>
       </c>
       <c r="N90" s="23"/>
     </row>
@@ -23914,13 +23911,13 @@
       <c r="G91" s="23"/>
       <c r="H91" s="23"/>
       <c r="I91" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J91" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K91" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L91" s="26" t="s">
         <v>23</v>
@@ -23980,13 +23977,13 @@
         <v>23</v>
       </c>
       <c r="K93" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L93" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M93" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N93" s="23"/>
     </row>
@@ -24002,7 +23999,7 @@
       <c r="G94" s="23"/>
       <c r="H94" s="23"/>
       <c r="I94" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J94" s="26" t="s">
         <v>23</v>
@@ -24032,7 +24029,7 @@
         <v>23</v>
       </c>
       <c r="K95" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L95" s="26" t="s">
         <v>23</v>
@@ -24056,13 +24053,13 @@
       <c r="G96" s="23"/>
       <c r="H96" s="23"/>
       <c r="I96" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J96" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K96" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L96" s="26" t="s">
         <v>23</v>
@@ -24086,7 +24083,7 @@
       <c r="G97" s="23"/>
       <c r="H97" s="23"/>
       <c r="I97" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J97" s="26" t="s">
         <v>23</v>
@@ -24098,7 +24095,7 @@
         <v>23</v>
       </c>
       <c r="M97" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N97" s="31" t="s">
         <v>25</v>
@@ -24116,13 +24113,13 @@
         <v>30</v>
       </c>
       <c r="E98" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F98" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G98" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H98" s="28" t="s">
         <v>26</v>
@@ -24158,7 +24155,7 @@
         <v>23</v>
       </c>
       <c r="K99" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L99" s="26" t="s">
         <v>23</v>
@@ -24222,7 +24219,7 @@
         <v>23</v>
       </c>
       <c r="M101" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N101" s="31" t="s">
         <v>25</v>
@@ -24234,22 +24231,22 @@
         <v>0.75</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D102" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F102" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H102" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I102" s="25" t="s">
         <v>26</v>
@@ -24282,7 +24279,7 @@
         <v>23</v>
       </c>
       <c r="K103" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L103" s="26" t="s">
         <v>23</v>
@@ -24372,7 +24369,7 @@
         <v>23</v>
       </c>
       <c r="K106" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L106" s="26" t="s">
         <v>23</v>
@@ -24388,22 +24385,22 @@
         <v>0.3125</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D107" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E107" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F107" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H107" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I107" s="29"/>
       <c r="J107" s="26" t="s">
@@ -24458,13 +24455,13 @@
         <v>23</v>
       </c>
       <c r="K109" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L109" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M109" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N109" s="23"/>
     </row>
@@ -24486,13 +24483,13 @@
         <v>23</v>
       </c>
       <c r="K110" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="L110" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M110" s="26" t="s">
         <v>177</v>
-      </c>
-      <c r="L110" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M110" s="26" t="s">
-        <v>178</v>
       </c>
       <c r="N110" s="23"/>
     </row>
@@ -24508,13 +24505,13 @@
       <c r="G111" s="23"/>
       <c r="H111" s="23"/>
       <c r="I111" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J111" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K111" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L111" s="26" t="s">
         <v>23</v>
@@ -24578,7 +24575,7 @@
         <v>23</v>
       </c>
       <c r="M113" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N113" s="31" t="s">
         <v>25</v>
@@ -24590,19 +24587,19 @@
         <v>0.75</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D114" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E114" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F114" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G114" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H114" s="28" t="s">
         <v>32</v>
@@ -24638,7 +24635,7 @@
         <v>23</v>
       </c>
       <c r="K115" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L115" s="26" t="s">
         <v>23</v>
@@ -24664,7 +24661,7 @@
       <c r="G116" s="23"/>
       <c r="H116" s="23"/>
       <c r="I116" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J116" s="26" t="s">
         <v>23</v>
@@ -24676,7 +24673,7 @@
         <v>23</v>
       </c>
       <c r="M116" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N116" s="28" t="s">
         <v>25</v>
@@ -24694,19 +24691,19 @@
         <v>30</v>
       </c>
       <c r="E117" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F117" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H117" s="28" t="s">
         <v>44</v>
       </c>
       <c r="I117" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J117" s="26" t="s">
         <v>23</v>
@@ -24730,13 +24727,13 @@
       <c r="G118" s="23"/>
       <c r="H118" s="23"/>
       <c r="I118" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J118" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K118" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L118" s="26" t="s">
         <v>23</v>
@@ -24782,22 +24779,22 @@
         <v>0.75</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D120" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E120" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F120" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G120" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H120" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I120" s="25" t="s">
         <v>26</v>
@@ -24856,13 +24853,13 @@
       <c r="G122" s="23"/>
       <c r="H122" s="23"/>
       <c r="I122" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J122" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K122" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L122" s="26" t="s">
         <v>23</v>
@@ -24892,13 +24889,13 @@
         <v>23</v>
       </c>
       <c r="K123" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L123" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M123" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N123" s="31" t="s">
         <v>25</v>
@@ -24916,16 +24913,16 @@
         <v>30</v>
       </c>
       <c r="E124" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F124" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G124" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H124" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I124" s="29"/>
       <c r="J124" s="26" t="s">
@@ -24998,19 +24995,19 @@
         <v>0.75</v>
       </c>
       <c r="C127" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D127" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E127" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F127" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G127" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H127" s="23"/>
       <c r="I127" s="25" t="s">
@@ -25037,7 +25034,7 @@
       <c r="F128" s="23"/>
       <c r="G128" s="23"/>
       <c r="H128" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I128" s="29"/>
       <c r="J128" s="26" t="s">
@@ -25068,7 +25065,7 @@
         <v>23</v>
       </c>
       <c r="K129" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L129" s="26" t="s">
         <v>23</v>
@@ -25092,19 +25089,19 @@
       <c r="G130" s="23"/>
       <c r="H130" s="23"/>
       <c r="I130" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J130" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K130" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J130" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K130" s="25" t="s">
-        <v>56</v>
-      </c>
       <c r="L130" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M130" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N130" s="31" t="s">
         <v>25</v>
@@ -25116,19 +25113,19 @@
         <v>0.3125</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D131" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E131" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F131" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G131" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H131" s="28" t="s">
         <v>44</v>
@@ -25150,19 +25147,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D132" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E132" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F132" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G132" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H132" s="23"/>
       <c r="I132" s="29"/>
@@ -25194,13 +25191,13 @@
         <v>23</v>
       </c>
       <c r="K133" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L133" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M133" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N133" s="31" t="s">
         <v>38</v>
@@ -25218,13 +25215,13 @@
         <v>30</v>
       </c>
       <c r="E134" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F134" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G134" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H134" s="28" t="s">
         <v>44</v>
@@ -25266,7 +25263,7 @@
         <v>23</v>
       </c>
       <c r="M135" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N135" s="31" t="s">
         <v>25</v>
@@ -25298,7 +25295,7 @@
         <v>23</v>
       </c>
       <c r="M136" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N136" s="31" t="s">
         <v>38</v>
@@ -25318,13 +25315,13 @@
         <v>44</v>
       </c>
       <c r="I137" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J137" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K137" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L137" s="26" t="s">
         <v>23</v>
@@ -25348,13 +25345,13 @@
         <v>30</v>
       </c>
       <c r="E138" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F138" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G138" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H138" s="23"/>
       <c r="I138" s="25" t="s">
@@ -25388,13 +25385,13 @@
         <v>23</v>
       </c>
       <c r="K139" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L139" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M139" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N139" s="23"/>
     </row>
@@ -25410,13 +25407,13 @@
       <c r="G140" s="23"/>
       <c r="H140" s="23"/>
       <c r="I140" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J140" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K140" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L140" s="26" t="s">
         <v>23</v>
@@ -25438,13 +25435,13 @@
       <c r="G141" s="23"/>
       <c r="H141" s="23"/>
       <c r="I141" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J141" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K141" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L141" s="26" t="s">
         <v>23</v>
@@ -25468,19 +25465,19 @@
         <v>30</v>
       </c>
       <c r="E142" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F142" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G142" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H142" s="28" t="s">
         <v>26</v>
       </c>
       <c r="I142" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J142" s="26" t="s">
         <v>23</v>
@@ -25504,13 +25501,13 @@
       <c r="G143" s="23"/>
       <c r="H143" s="23"/>
       <c r="I143" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J143" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K143" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L143" s="26" t="s">
         <v>23</v>
@@ -25578,7 +25575,7 @@
         <v>23</v>
       </c>
       <c r="M145" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N145" s="31" t="s">
         <v>25</v>
@@ -25596,7 +25593,7 @@
       <c r="G146" s="23"/>
       <c r="H146" s="23"/>
       <c r="I146" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J146" s="26" t="s">
         <v>23</v>
@@ -25632,7 +25629,7 @@
         <v>23</v>
       </c>
       <c r="M147" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N147" s="31" t="s">
         <v>38</v>
@@ -25650,7 +25647,7 @@
       <c r="G148" s="23"/>
       <c r="H148" s="23"/>
       <c r="I148" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J148" s="26" t="s">
         <v>23</v>
@@ -25704,13 +25701,13 @@
       <c r="G150" s="23"/>
       <c r="H150" s="23"/>
       <c r="I150" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J150" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K150" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L150" s="26" t="s">
         <v>23</v>
@@ -25734,13 +25731,13 @@
       <c r="G151" s="23"/>
       <c r="H151" s="23"/>
       <c r="I151" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J151" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K151" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L151" s="26" t="s">
         <v>23</v>
@@ -25762,13 +25759,13 @@
       <c r="G152" s="23"/>
       <c r="H152" s="23"/>
       <c r="I152" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J152" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K152" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L152" s="26" t="s">
         <v>23</v>
@@ -25786,19 +25783,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D153" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E153" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F153" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G153" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H153" s="23"/>
       <c r="I153" s="25" t="s">
@@ -25838,7 +25835,7 @@
         <v>23</v>
       </c>
       <c r="M154" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N154" s="31" t="s">
         <v>25</v>
@@ -25910,19 +25907,19 @@
         <v>30</v>
       </c>
       <c r="E157" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F157" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G157" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H157" s="28" t="s">
         <v>44</v>
       </c>
       <c r="I157" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J157" s="26" t="s">
         <v>23</v>
@@ -25946,13 +25943,13 @@
       <c r="G158" s="23"/>
       <c r="H158" s="23"/>
       <c r="I158" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J158" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K158" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L158" s="26" t="s">
         <v>23</v>
@@ -25978,13 +25975,13 @@
       <c r="G159" s="23"/>
       <c r="H159" s="23"/>
       <c r="I159" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J159" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K159" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L159" s="26" t="s">
         <v>23</v>
@@ -26002,19 +25999,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C160" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D160" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E160" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F160" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G160" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H160" s="28" t="s">
         <v>33</v>
@@ -26044,13 +26041,13 @@
       <c r="G161" s="23"/>
       <c r="H161" s="23"/>
       <c r="I161" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J161" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K161" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L161" s="26" t="s">
         <v>23</v>
@@ -26072,13 +26069,13 @@
       <c r="G162" s="23"/>
       <c r="H162" s="23"/>
       <c r="I162" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J162" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K162" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L162" s="26" t="s">
         <v>23</v>
@@ -26132,13 +26129,13 @@
         <v>30</v>
       </c>
       <c r="E164" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F164" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G164" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H164" s="28" t="s">
         <v>33</v>
@@ -26206,7 +26203,7 @@
         <v>23</v>
       </c>
       <c r="K166" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L166" s="26" t="s">
         <v>23</v>
@@ -26228,13 +26225,13 @@
       <c r="G167" s="23"/>
       <c r="H167" s="23"/>
       <c r="I167" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J167" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K167" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L167" s="26" t="s">
         <v>23</v>
@@ -26258,19 +26255,19 @@
         <v>30</v>
       </c>
       <c r="E168" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F168" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G168" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H168" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I168" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J168" s="26" t="s">
         <v>23</v>
@@ -26294,13 +26291,13 @@
       <c r="G169" s="23"/>
       <c r="H169" s="23"/>
       <c r="I169" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J169" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K169" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L169" s="26" t="s">
         <v>23</v>
@@ -26330,7 +26327,7 @@
         <v>23</v>
       </c>
       <c r="K170" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L170" s="26" t="s">
         <v>23</v>
@@ -26339,7 +26336,7 @@
         <v>36</v>
       </c>
       <c r="N170" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -26354,13 +26351,13 @@
         <v>30</v>
       </c>
       <c r="E171" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F171" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G171" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H171" s="38" t="s">
         <v>32</v>
@@ -26396,7 +26393,7 @@
         <v>23</v>
       </c>
       <c r="K172" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L172" s="26" t="s">
         <v>23</v>
@@ -26420,13 +26417,13 @@
       <c r="G173" s="23"/>
       <c r="H173" s="23"/>
       <c r="I173" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J173" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K173" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L173" s="26" t="s">
         <v>23</v>
@@ -26452,13 +26449,13 @@
         <v>30</v>
       </c>
       <c r="E174" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F174" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G174" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H174" s="28" t="s">
         <v>32</v>
@@ -26486,7 +26483,7 @@
       <c r="G175" s="23"/>
       <c r="H175" s="23"/>
       <c r="I175" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J175" s="26" t="s">
         <v>23</v>
@@ -26516,7 +26513,7 @@
         <v>23</v>
       </c>
       <c r="K176" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L176" s="26" t="s">
         <v>23</v>
@@ -26540,7 +26537,7 @@
       <c r="G177" s="23"/>
       <c r="H177" s="23"/>
       <c r="I177" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J177" s="26" t="s">
         <v>23</v>
@@ -26570,13 +26567,13 @@
         <v>30</v>
       </c>
       <c r="E178" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F178" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G178" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H178" s="28" t="s">
         <v>29</v>
@@ -26638,7 +26635,7 @@
       <c r="G180" s="23"/>
       <c r="H180" s="23"/>
       <c r="I180" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J180" s="26" t="s">
         <v>23</v>
@@ -26668,13 +26665,13 @@
       <c r="G181" s="23"/>
       <c r="H181" s="23"/>
       <c r="I181" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="J181" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K181" s="25" t="s">
         <v>184</v>
-      </c>
-      <c r="J181" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="K181" s="25" t="s">
-        <v>185</v>
       </c>
       <c r="L181" s="26" t="s">
         <v>23</v>
@@ -26696,13 +26693,13 @@
         <v>30</v>
       </c>
       <c r="E182" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F182" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G182" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H182" s="28" t="s">
         <v>26</v>
@@ -26732,13 +26729,13 @@
       <c r="G183" s="23"/>
       <c r="H183" s="23"/>
       <c r="I183" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J183" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K183" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L183" s="23"/>
       <c r="M183" s="26" t="s">
@@ -26760,13 +26757,13 @@
       <c r="G184" s="23"/>
       <c r="H184" s="23"/>
       <c r="I184" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J184" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K184" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L184" s="26" t="s">
         <v>23</v>
@@ -26784,22 +26781,22 @@
         <v>0.75</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D185" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E185" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F185" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G185" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H185" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I185" s="25" t="s">
         <v>44</v>
@@ -26832,13 +26829,13 @@
         <v>23</v>
       </c>
       <c r="K186" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L186" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M186" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N186" s="23"/>
     </row>
@@ -26916,19 +26913,19 @@
       <c r="G189" s="23"/>
       <c r="H189" s="23"/>
       <c r="I189" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J189" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K189" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L189" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M189" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N189" s="23"/>
     </row>
@@ -26944,13 +26941,13 @@
       <c r="G190" s="23"/>
       <c r="H190" s="23"/>
       <c r="I190" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J190" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K190" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L190" s="26" t="s">
         <v>23</v>
@@ -26972,13 +26969,13 @@
         <v>30</v>
       </c>
       <c r="E191" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F191" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G191" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H191" s="28" t="s">
         <v>33</v>
@@ -27062,19 +27059,19 @@
         <v>0.75</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D194" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E194" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F194" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G194" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H194" s="23"/>
       <c r="I194" s="25" t="s">
@@ -27132,13 +27129,13 @@
         <v>23</v>
       </c>
       <c r="K196" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L196" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M196" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N196" s="28" t="s">
         <v>38</v>
@@ -27164,13 +27161,13 @@
         <v>23</v>
       </c>
       <c r="K197" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L197" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M197" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N197" s="28" t="s">
         <v>25</v>
@@ -27188,7 +27185,7 @@
       <c r="G198" s="23"/>
       <c r="H198" s="23"/>
       <c r="I198" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J198" s="23"/>
       <c r="K198" s="29"/>
@@ -27208,13 +27205,13 @@
         <v>30</v>
       </c>
       <c r="E199" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F199" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G199" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H199" s="28" t="s">
         <v>26</v>
@@ -27242,13 +27239,13 @@
       <c r="G200" s="23"/>
       <c r="H200" s="23"/>
       <c r="I200" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J200" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K200" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L200" s="26" t="s">
         <v>23</v>
@@ -27257,7 +27254,7 @@
         <v>36</v>
       </c>
       <c r="N200" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="201" spans="1:14" ht="51.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -27278,7 +27275,7 @@
         <v>23</v>
       </c>
       <c r="K201" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L201" s="26" t="s">
         <v>23</v>
@@ -27287,7 +27284,7 @@
         <v>37</v>
       </c>
       <c r="N201" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202" spans="1:14" ht="64" thickBot="1" x14ac:dyDescent="0.4">
@@ -27302,7 +27299,7 @@
       <c r="G202" s="23"/>
       <c r="H202" s="23"/>
       <c r="I202" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J202" s="26" t="s">
         <v>23</v>
@@ -27326,19 +27323,19 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D203" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E203" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F203" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G203" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H203" s="23"/>
       <c r="I203" s="29"/>
@@ -27418,7 +27415,7 @@
         <v>23</v>
       </c>
       <c r="K206" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L206" s="26" t="s">
         <v>23</v>
@@ -27440,13 +27437,13 @@
       <c r="G207" s="23"/>
       <c r="H207" s="23"/>
       <c r="I207" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J207" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K207" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L207" s="26" t="s">
         <v>23</v>
@@ -27508,7 +27505,7 @@
         <v>23</v>
       </c>
       <c r="K209" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L209" s="26" t="s">
         <v>23</v>
@@ -27529,7 +27526,7 @@
       <c r="F210" s="23"/>
       <c r="G210" s="23"/>
       <c r="H210" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I210" s="29"/>
       <c r="J210" s="26" t="s">
@@ -27548,19 +27545,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C211" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D211" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E211" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F211" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G211" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H211" s="23"/>
       <c r="I211" s="25" t="s">
@@ -27600,7 +27597,7 @@
         <v>23</v>
       </c>
       <c r="M212" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N212" s="28" t="s">
         <v>38</v>
@@ -27624,7 +27621,7 @@
         <v>23</v>
       </c>
       <c r="K213" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L213" s="26" t="s">
         <v>23</v>
@@ -27654,13 +27651,13 @@
         <v>23</v>
       </c>
       <c r="K214" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L214" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M214" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N214" s="23"/>
     </row>
@@ -27670,19 +27667,19 @@
         <v>0.75</v>
       </c>
       <c r="C215" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D215" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E215" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F215" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G215" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H215" s="28" t="s">
         <v>46</v>
@@ -27724,7 +27721,7 @@
         <v>23</v>
       </c>
       <c r="M216" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N216" s="23"/>
     </row>
@@ -27740,13 +27737,13 @@
       <c r="G217" s="23"/>
       <c r="H217" s="23"/>
       <c r="I217" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J217" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K217" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L217" s="26" t="s">
         <v>23</v>
@@ -27768,13 +27765,13 @@
         <v>30</v>
       </c>
       <c r="E218" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F218" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G218" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H218" s="23"/>
       <c r="I218" s="29"/>
@@ -27849,10 +27846,10 @@
       <c r="F221" s="23"/>
       <c r="G221" s="23"/>
       <c r="H221" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I221" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J221" s="26" t="s">
         <v>23</v>
@@ -27902,13 +27899,13 @@
         <v>30</v>
       </c>
       <c r="E223" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F223" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G223" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H223" s="23"/>
       <c r="I223" s="25" t="s">
@@ -27936,16 +27933,16 @@
         <v>30</v>
       </c>
       <c r="E224" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F224" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G224" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H224" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I224" s="25" t="s">
         <v>44</v>
@@ -27978,13 +27975,13 @@
         <v>23</v>
       </c>
       <c r="K225" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L225" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M225" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N225" s="23"/>
     </row>
@@ -28006,13 +28003,13 @@
         <v>23</v>
       </c>
       <c r="K226" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L226" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M226" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N226" s="23"/>
     </row>
@@ -28036,7 +28033,7 @@
         <v>23</v>
       </c>
       <c r="K227" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L227" s="26" t="s">
         <v>23</v>
@@ -28064,13 +28061,13 @@
         <v>23</v>
       </c>
       <c r="K228" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L228" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M228" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N228" s="23"/>
     </row>
@@ -28086,13 +28083,13 @@
         <v>30</v>
       </c>
       <c r="E229" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F229" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G229" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H229" s="28" t="s">
         <v>26</v>
@@ -28150,7 +28147,7 @@
         <v>23</v>
       </c>
       <c r="K231" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L231" s="26" t="s">
         <v>23</v>
@@ -28166,22 +28163,22 @@
         <v>0.75</v>
       </c>
       <c r="C232" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D232" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E232" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F232" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G232" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H232" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I232" s="25" t="s">
         <v>29</v>
@@ -28208,19 +28205,19 @@
       <c r="G233" s="23"/>
       <c r="H233" s="23"/>
       <c r="I233" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J233" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K233" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L233" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M233" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N233" s="23"/>
     </row>
@@ -28236,19 +28233,19 @@
       <c r="G234" s="23"/>
       <c r="H234" s="23"/>
       <c r="I234" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J234" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K234" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L234" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M234" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N234" s="23"/>
     </row>
@@ -28270,7 +28267,7 @@
         <v>23</v>
       </c>
       <c r="K235" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L235" s="26" t="s">
         <v>23</v>
@@ -28294,13 +28291,13 @@
         <v>30</v>
       </c>
       <c r="E236" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F236" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G236" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H236" s="28" t="s">
         <v>32</v>
@@ -28328,7 +28325,7 @@
       <c r="G237" s="23"/>
       <c r="H237" s="23"/>
       <c r="I237" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J237" s="26" t="s">
         <v>23</v>
@@ -28346,19 +28343,19 @@
         <v>0.75</v>
       </c>
       <c r="C238" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D238" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E238" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F238" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G238" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H238" s="28" t="s">
         <v>22</v>
@@ -28388,13 +28385,13 @@
       <c r="G239" s="23"/>
       <c r="H239" s="23"/>
       <c r="I239" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J239" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K239" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L239" s="26" t="s">
         <v>23</v>
@@ -28422,13 +28419,13 @@
         <v>23</v>
       </c>
       <c r="K240" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L240" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M240" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N240" s="23"/>
     </row>
@@ -28450,7 +28447,7 @@
         <v>23</v>
       </c>
       <c r="K241" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L241" s="26" t="s">
         <v>23</v>
@@ -40938,7 +40935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
@@ -41122,19 +41119,19 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L8" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N8" s="31" t="s">
         <v>38</v>
@@ -41158,13 +41155,13 @@
         <v>23</v>
       </c>
       <c r="K9" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N9" s="23"/>
     </row>
@@ -41174,25 +41171,25 @@
         <v>0.375</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H10" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>23</v>
@@ -41210,19 +41207,19 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>22</v>
@@ -41276,7 +41273,7 @@
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J13" s="26" t="s">
         <v>23</v>
@@ -41294,22 +41291,22 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="26" t="s">
@@ -41328,19 +41325,19 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" s="28" t="s">
         <v>46</v>
@@ -41362,19 +41359,19 @@
         <v>0.75</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F16" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="25" t="s">
@@ -41402,19 +41399,19 @@
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L17" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M17" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N17" s="23"/>
     </row>
@@ -41430,19 +41427,19 @@
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J18" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L18" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N18" s="23"/>
     </row>
@@ -41454,25 +41451,25 @@
         <v>0.3125</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F19" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H19" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J19" s="26" t="s">
         <v>23</v>
@@ -41496,7 +41493,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" s="26" t="s">
         <v>23</v>
@@ -41508,7 +41505,7 @@
         <v>23</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N20" s="23"/>
     </row>
@@ -41530,13 +41527,13 @@
         <v>23</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L21" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N21" s="23"/>
     </row>
@@ -41552,17 +41549,17 @@
         <v>30</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F22" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J22" s="26" t="s">
         <v>23</v>
@@ -41598,7 +41595,7 @@
         <v>23</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N23" s="23"/>
     </row>
@@ -41616,19 +41613,19 @@
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J24" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L24" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N24" s="23"/>
     </row>
@@ -41644,13 +41641,13 @@
         <v>30</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F25" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H25" s="28" t="s">
         <v>44</v>
@@ -41678,7 +41675,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J26" s="26" t="s">
         <v>23</v>
@@ -41696,19 +41693,19 @@
         <v>0.75</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F27" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H27" s="28" t="s">
         <v>32</v>
@@ -41738,19 +41735,19 @@
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
       <c r="I28" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J28" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L28" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M28" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N28" s="23"/>
     </row>
@@ -41774,13 +41771,13 @@
         <v>23</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L29" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M29" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N29" s="23"/>
     </row>
@@ -41796,16 +41793,16 @@
         <v>30</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F30" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I30" s="25" t="s">
         <v>46</v>
@@ -41838,13 +41835,13 @@
         <v>23</v>
       </c>
       <c r="K31" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="26" t="s">
         <v>210</v>
-      </c>
-      <c r="L31" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M31" s="26" t="s">
-        <v>211</v>
       </c>
       <c r="N31" s="23"/>
     </row>
@@ -41866,13 +41863,13 @@
         <v>23</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L32" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M32" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N32" s="23"/>
     </row>
@@ -41882,19 +41879,19 @@
         <v>0.75</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F33" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H33" s="28" t="s">
         <v>22</v>
@@ -41924,19 +41921,19 @@
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
       <c r="I34" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J34" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L34" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M34" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N34" s="23"/>
     </row>
@@ -41954,7 +41951,7 @@
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J35" s="26" t="s">
         <v>23</v>
@@ -41981,7 +41978,7 @@
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
       <c r="H36" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I36" s="29"/>
       <c r="J36" s="26" t="s">
@@ -42000,23 +41997,23 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F37" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J37" s="26" t="s">
         <v>23</v>
@@ -42046,13 +42043,13 @@
         <v>23</v>
       </c>
       <c r="K38" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L38" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M38" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N38" s="23"/>
     </row>
@@ -42068,13 +42065,13 @@
         <v>30</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F39" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H39" s="28" t="s">
         <v>32</v>
@@ -42104,19 +42101,19 @@
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J40" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K40" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L40" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M40" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N40" s="23"/>
     </row>
@@ -42134,16 +42131,16 @@
         <v>30</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F41" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H41" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I41" s="25" t="s">
         <v>22</v>
@@ -42170,7 +42167,7 @@
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J42" s="26" t="s">
         <v>23</v>
@@ -42182,7 +42179,7 @@
         <v>23</v>
       </c>
       <c r="M42" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N42" s="23"/>
     </row>
@@ -42198,19 +42195,19 @@
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
       <c r="I43" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J43" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K43" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L43" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M43" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N43" s="23"/>
     </row>
@@ -42226,19 +42223,19 @@
         <v>30</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F44" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H44" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I44" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J44" s="26" t="s">
         <v>23</v>
@@ -42264,13 +42261,13 @@
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
       <c r="I45" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J45" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K45" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L45" s="26" t="s">
         <v>23</v>
@@ -42291,7 +42288,7 @@
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
       <c r="H46" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I46" s="29"/>
       <c r="J46" s="26" t="s">
@@ -42310,19 +42307,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F47" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H47" s="23"/>
       <c r="I47" s="25" t="s">
@@ -42350,19 +42347,19 @@
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J48" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K48" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L48" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M48" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N48" s="23"/>
     </row>
@@ -42378,13 +42375,13 @@
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J49" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K49" s="25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L49" s="26" t="s">
         <v>23</v>
@@ -42400,22 +42397,22 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D50" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F50" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I50" s="25" t="s">
         <v>46</v>
@@ -42448,13 +42445,13 @@
         <v>23</v>
       </c>
       <c r="K51" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L51" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M51" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N51" s="23"/>
     </row>
@@ -42472,13 +42469,13 @@
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J52" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K52" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L52" s="26" t="s">
         <v>23</v>
@@ -42500,7 +42497,7 @@
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J53" s="26" t="s">
         <v>23</v>
@@ -42530,13 +42527,13 @@
         <v>23</v>
       </c>
       <c r="K54" s="25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L54" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M54" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N54" s="23"/>
     </row>
@@ -42552,13 +42549,13 @@
         <v>30</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F55" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H55" s="28" t="s">
         <v>26</v>
@@ -42586,13 +42583,13 @@
         <v>30</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F56" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H56" s="28" t="s">
         <v>29</v>
@@ -42730,7 +42727,7 @@
         <v>23</v>
       </c>
       <c r="M61" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N61" s="23"/>
     </row>
@@ -42746,13 +42743,13 @@
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
       <c r="I62" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J62" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K62" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L62" s="26" t="s">
         <v>23</v>
@@ -42774,13 +42771,13 @@
       <c r="G63" s="23"/>
       <c r="H63" s="23"/>
       <c r="I63" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J63" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K63" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L63" s="26" t="s">
         <v>23</v>
@@ -42804,7 +42801,7 @@
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
       <c r="I64" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J64" s="26" t="s">
         <v>23</v>
@@ -42852,19 +42849,19 @@
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
       <c r="I66" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J66" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K66" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L66" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M66" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N66" s="23"/>
     </row>
@@ -42882,19 +42879,19 @@
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
       <c r="I67" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J67" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K67" s="25" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L67" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M67" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N67" s="23"/>
     </row>
@@ -42904,19 +42901,19 @@
         <v>0.3125</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D68" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F68" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G68" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H68" s="28" t="s">
         <v>22</v>
@@ -42950,13 +42947,13 @@
         <v>23</v>
       </c>
       <c r="K69" s="25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L69" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M69" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N69" s="23"/>
     </row>
@@ -42972,7 +42969,7 @@
       <c r="G70" s="23"/>
       <c r="H70" s="23"/>
       <c r="I70" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J70" s="26" t="s">
         <v>23</v>
@@ -43002,13 +42999,13 @@
         <v>23</v>
       </c>
       <c r="K71" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="L71" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71" s="26" t="s">
         <v>222</v>
-      </c>
-      <c r="L71" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M71" s="26" t="s">
-        <v>223</v>
       </c>
       <c r="N71" s="23"/>
     </row>
@@ -43030,13 +43027,13 @@
         <v>23</v>
       </c>
       <c r="K72" s="25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L72" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M72" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N72" s="23"/>
     </row>
@@ -43058,13 +43055,13 @@
         <v>23</v>
       </c>
       <c r="K73" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L73" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M73" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N73" s="23"/>
     </row>
@@ -43080,19 +43077,19 @@
         <v>30</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F74" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G74" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H74" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I74" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J74" s="26" t="s">
         <v>23</v>
@@ -43122,13 +43119,13 @@
         <v>23</v>
       </c>
       <c r="K75" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L75" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M75" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N75" s="23"/>
     </row>
@@ -43146,19 +43143,19 @@
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
       <c r="I76" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J76" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K76" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L76" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M76" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N76" s="23"/>
     </row>
@@ -43174,13 +43171,13 @@
         <v>30</v>
       </c>
       <c r="E77" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F77" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G77" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="29"/>
@@ -43230,19 +43227,19 @@
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
       <c r="I79" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J79" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K79" s="25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L79" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M79" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N79" s="23"/>
     </row>
@@ -43258,13 +43255,13 @@
       <c r="G80" s="23"/>
       <c r="H80" s="23"/>
       <c r="I80" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J80" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K80" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L80" s="26" t="s">
         <v>23</v>
@@ -43280,19 +43277,19 @@
         <v>0.75</v>
       </c>
       <c r="C81" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D81" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E81" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F81" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G81" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H81" s="28" t="s">
         <v>22</v>
@@ -43322,19 +43319,19 @@
       <c r="G82" s="23"/>
       <c r="H82" s="23"/>
       <c r="I82" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J82" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K82" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L82" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M82" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N82" s="23"/>
     </row>
@@ -43356,13 +43353,13 @@
         <v>23</v>
       </c>
       <c r="K83" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L83" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M83" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N83" s="23"/>
     </row>
@@ -43386,13 +43383,13 @@
         <v>23</v>
       </c>
       <c r="K84" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L84" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M84" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N84" s="23"/>
     </row>
@@ -43408,7 +43405,7 @@
       <c r="G85" s="23"/>
       <c r="H85" s="23"/>
       <c r="I85" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J85" s="26" t="s">
         <v>23</v>
@@ -43432,13 +43429,13 @@
         <v>30</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F86" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H86" s="28" t="s">
         <v>32</v>
@@ -43466,19 +43463,19 @@
       <c r="G87" s="23"/>
       <c r="H87" s="23"/>
       <c r="I87" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J87" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K87" s="25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L87" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M87" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N87" s="23"/>
     </row>
@@ -43488,22 +43485,22 @@
         <v>0.75</v>
       </c>
       <c r="C88" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D88" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E88" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F88" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G88" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H88" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I88" s="25" t="s">
         <v>22</v>
@@ -43518,7 +43515,7 @@
         <v>23</v>
       </c>
       <c r="M88" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N88" s="23"/>
     </row>
@@ -43534,19 +43531,19 @@
       <c r="G89" s="23"/>
       <c r="H89" s="23"/>
       <c r="I89" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J89" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K89" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L89" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M89" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N89" s="23"/>
     </row>
@@ -43564,19 +43561,19 @@
       <c r="G90" s="23"/>
       <c r="H90" s="23"/>
       <c r="I90" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J90" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K90" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L90" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M90" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N90" s="23"/>
     </row>
@@ -43586,22 +43583,22 @@
         <v>0.3125</v>
       </c>
       <c r="C91" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D91" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E91" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F91" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G91" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H91" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I91" s="29"/>
       <c r="J91" s="26" t="s">
@@ -43650,19 +43647,19 @@
       <c r="G93" s="23"/>
       <c r="H93" s="23"/>
       <c r="I93" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J93" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K93" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L93" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M93" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N93" s="23"/>
     </row>
@@ -43672,19 +43669,19 @@
         <v>0.75</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D94" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E94" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F94" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G94" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H94" s="28" t="s">
         <v>29</v>
@@ -43720,13 +43717,13 @@
         <v>23</v>
       </c>
       <c r="K95" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L95" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M95" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N95" s="23"/>
     </row>
@@ -43748,7 +43745,7 @@
         <v>23</v>
       </c>
       <c r="K96" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L96" s="26" t="s">
         <v>23</v>
@@ -43778,13 +43775,13 @@
         <v>23</v>
       </c>
       <c r="K97" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L97" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M97" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N97" s="23"/>
     </row>
@@ -43800,7 +43797,7 @@
       <c r="G98" s="23"/>
       <c r="H98" s="23"/>
       <c r="I98" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J98" s="26" t="s">
         <v>23</v>
@@ -43822,19 +43819,19 @@
         <v>0.3125</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D99" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E99" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F99" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H99" s="28" t="s">
         <v>22</v>
@@ -43862,7 +43859,7 @@
       <c r="G100" s="23"/>
       <c r="H100" s="23"/>
       <c r="I100" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J100" s="26" t="s">
         <v>23</v>
@@ -43892,13 +43889,13 @@
         <v>23</v>
       </c>
       <c r="K101" s="25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L101" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M101" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N101" s="23"/>
     </row>
@@ -43908,25 +43905,25 @@
         <v>0.75</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D102" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F102" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H102" s="28" t="s">
         <v>32</v>
       </c>
       <c r="I102" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J102" s="26" t="s">
         <v>23</v>
@@ -43952,7 +43949,7 @@
       <c r="G103" s="23"/>
       <c r="H103" s="23"/>
       <c r="I103" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J103" s="26" t="s">
         <v>23</v>
@@ -43964,7 +43961,7 @@
         <v>23</v>
       </c>
       <c r="M103" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N103" s="23"/>
     </row>
@@ -43980,7 +43977,7 @@
       <c r="G104" s="23"/>
       <c r="H104" s="23"/>
       <c r="I104" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J104" s="26" t="s">
         <v>23</v>
@@ -43996,19 +43993,19 @@
         <v>0.375</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D105" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E105" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F105" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H105" s="28" t="s">
         <v>29</v>
@@ -44048,7 +44045,7 @@
         <v>23</v>
       </c>
       <c r="M106" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N106" s="23"/>
     </row>
@@ -44058,22 +44055,22 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D107" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E107" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F107" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G107" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H107" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I107" s="29"/>
       <c r="J107" s="26" t="s">
@@ -44098,7 +44095,7 @@
       <c r="G108" s="23"/>
       <c r="H108" s="23"/>
       <c r="I108" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J108" s="26" t="s">
         <v>23</v>
@@ -44122,19 +44119,19 @@
       <c r="G109" s="23"/>
       <c r="H109" s="23"/>
       <c r="I109" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J109" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K109" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L109" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M109" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N109" s="23"/>
     </row>
@@ -44150,19 +44147,19 @@
       <c r="G110" s="23"/>
       <c r="H110" s="23"/>
       <c r="I110" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J110" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K110" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L110" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M110" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N110" s="23"/>
     </row>
@@ -44180,19 +44177,19 @@
       <c r="G111" s="23"/>
       <c r="H111" s="23"/>
       <c r="I111" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J111" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K111" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L111" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M111" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N111" s="23"/>
     </row>
@@ -44202,22 +44199,22 @@
         <v>0.3125</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D112" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E112" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F112" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G112" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H112" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I112" s="29"/>
       <c r="J112" s="26" t="s">
@@ -44242,19 +44239,19 @@
       <c r="G113" s="23"/>
       <c r="H113" s="23"/>
       <c r="I113" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J113" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K113" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="L113" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M113" s="26" t="s">
         <v>232</v>
-      </c>
-      <c r="L113" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M113" s="26" t="s">
-        <v>233</v>
       </c>
       <c r="N113" s="23"/>
     </row>
@@ -44270,7 +44267,7 @@
       <c r="G114" s="23"/>
       <c r="H114" s="23"/>
       <c r="I114" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J114" s="26" t="s">
         <v>23</v>
@@ -44294,19 +44291,19 @@
       <c r="G115" s="23"/>
       <c r="H115" s="23"/>
       <c r="I115" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J115" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K115" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L115" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M115" s="26" t="s">
         <v>234</v>
-      </c>
-      <c r="L115" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M115" s="26" t="s">
-        <v>235</v>
       </c>
       <c r="N115" s="23"/>
     </row>
@@ -44334,7 +44331,7 @@
         <v>23</v>
       </c>
       <c r="M116" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N116" s="23"/>
     </row>
@@ -44350,13 +44347,13 @@
         <v>30</v>
       </c>
       <c r="E117" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F117" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G117" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H117" s="23"/>
       <c r="I117" s="29"/>
@@ -44381,7 +44378,7 @@
       <c r="F118" s="23"/>
       <c r="G118" s="23"/>
       <c r="H118" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I118" s="25" t="s">
         <v>46</v>
@@ -44408,19 +44405,19 @@
       <c r="G119" s="23"/>
       <c r="H119" s="23"/>
       <c r="I119" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J119" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K119" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L119" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M119" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N119" s="23"/>
     </row>
@@ -44436,19 +44433,19 @@
       <c r="G120" s="23"/>
       <c r="H120" s="23"/>
       <c r="I120" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J120" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K120" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L120" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M120" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N120" s="23"/>
     </row>
@@ -44460,23 +44457,23 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C121" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D121" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E121" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F121" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G121" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H121" s="23"/>
       <c r="I121" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J121" s="26" t="s">
         <v>23</v>
@@ -44500,19 +44497,19 @@
       <c r="G122" s="23"/>
       <c r="H122" s="23"/>
       <c r="I122" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J122" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K122" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L122" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M122" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N122" s="23"/>
     </row>
@@ -44534,13 +44531,13 @@
         <v>23</v>
       </c>
       <c r="K123" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L123" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M123" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N123" s="23"/>
     </row>
@@ -44555,7 +44552,7 @@
       <c r="F124" s="23"/>
       <c r="G124" s="23"/>
       <c r="H124" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I124" s="29"/>
       <c r="J124" s="26" t="s">
@@ -44580,19 +44577,19 @@
       <c r="G125" s="23"/>
       <c r="H125" s="23"/>
       <c r="I125" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J125" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K125" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L125" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M125" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N125" s="23"/>
     </row>
@@ -44608,13 +44605,13 @@
         <v>30</v>
       </c>
       <c r="E126" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F126" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G126" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H126" s="23"/>
       <c r="I126" s="29"/>
@@ -44642,7 +44639,7 @@
         <v>29</v>
       </c>
       <c r="I127" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J127" s="26" t="s">
         <v>23</v>
@@ -44662,23 +44659,23 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C128" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D128" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E128" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F128" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G128" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H128" s="23"/>
       <c r="I128" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J128" s="26" t="s">
         <v>23</v>
@@ -44701,7 +44698,7 @@
       <c r="F129" s="23"/>
       <c r="G129" s="23"/>
       <c r="H129" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I129" s="29"/>
       <c r="J129" s="26" t="s">
@@ -44726,13 +44723,13 @@
       <c r="G130" s="23"/>
       <c r="H130" s="23"/>
       <c r="I130" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J130" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K130" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L130" s="26" t="s">
         <v>23</v>
@@ -44760,13 +44757,13 @@
         <v>23</v>
       </c>
       <c r="K131" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L131" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M131" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N131" s="23"/>
     </row>
@@ -44788,13 +44785,13 @@
         <v>23</v>
       </c>
       <c r="K132" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L132" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M132" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N132" s="23"/>
     </row>
@@ -44804,23 +44801,23 @@
         <v>0.75</v>
       </c>
       <c r="C133" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D133" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E133" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F133" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G133" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H133" s="23"/>
       <c r="I133" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J133" s="26" t="s">
         <v>23</v>
@@ -44880,7 +44877,7 @@
         <v>23</v>
       </c>
       <c r="M135" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N135" s="23"/>
     </row>
@@ -44898,19 +44895,19 @@
       <c r="G136" s="23"/>
       <c r="H136" s="23"/>
       <c r="I136" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J136" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K136" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L136" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M136" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N136" s="23"/>
     </row>
@@ -44920,22 +44917,22 @@
         <v>0.3125</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D137" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E137" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F137" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G137" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H137" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I137" s="29"/>
       <c r="J137" s="26" t="s">
@@ -44988,11 +44985,11 @@
       </c>
       <c r="J139" s="23"/>
       <c r="K139" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L139" s="23"/>
       <c r="M139" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N139" s="23"/>
     </row>
@@ -45008,19 +45005,19 @@
       <c r="G140" s="23"/>
       <c r="H140" s="23"/>
       <c r="I140" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J140" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K140" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L140" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M140" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N140" s="23"/>
     </row>
@@ -45030,19 +45027,19 @@
         <v>0.75</v>
       </c>
       <c r="C141" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D141" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E141" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F141" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G141" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H141" s="23"/>
       <c r="I141" s="25" t="s">
@@ -45069,7 +45066,7 @@
       <c r="F142" s="23"/>
       <c r="G142" s="23"/>
       <c r="H142" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I142" s="29"/>
       <c r="J142" s="26" t="s">
@@ -45096,13 +45093,13 @@
         <v>30</v>
       </c>
       <c r="E143" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F143" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G143" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H143" s="28" t="s">
         <v>33</v>
@@ -45148,25 +45145,25 @@
         <v>0.75</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D145" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E145" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F145" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G145" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H145" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I145" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J145" s="26" t="s">
         <v>23</v>
@@ -45192,19 +45189,19 @@
       <c r="G146" s="23"/>
       <c r="H146" s="23"/>
       <c r="I146" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J146" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K146" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="L146" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M146" s="26" t="s">
         <v>239</v>
-      </c>
-      <c r="L146" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M146" s="26" t="s">
-        <v>240</v>
       </c>
       <c r="N146" s="23"/>
     </row>
@@ -45214,19 +45211,19 @@
         <v>0.3125</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D147" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E147" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F147" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G147" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H147" s="28" t="s">
         <v>44</v>
@@ -45254,19 +45251,19 @@
       <c r="G148" s="23"/>
       <c r="H148" s="23"/>
       <c r="I148" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J148" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K148" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L148" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M148" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N148" s="23"/>
     </row>
@@ -45318,7 +45315,7 @@
         <v>23</v>
       </c>
       <c r="M150" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N150" s="23"/>
     </row>
@@ -45328,19 +45325,19 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="C151" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D151" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E151" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F151" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G151" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H151" s="28" t="s">
         <v>44</v>
@@ -45352,13 +45349,13 @@
         <v>23</v>
       </c>
       <c r="K151" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L151" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M151" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N151" s="23"/>
     </row>
@@ -45404,13 +45401,13 @@
         <v>23</v>
       </c>
       <c r="K153" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L153" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M153" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N153" s="23"/>
     </row>
@@ -45428,7 +45425,7 @@
       <c r="G154" s="23"/>
       <c r="H154" s="23"/>
       <c r="I154" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J154" s="26" t="s">
         <v>23</v>
@@ -45462,13 +45459,13 @@
         <v>23</v>
       </c>
       <c r="K155" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L155" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M155" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N155" s="23"/>
     </row>
@@ -45508,13 +45505,13 @@
         <v>30</v>
       </c>
       <c r="E157" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F157" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G157" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H157" s="28" t="s">
         <v>34</v>
@@ -45548,13 +45545,13 @@
         <v>23</v>
       </c>
       <c r="K158" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="L158" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M158" s="26" t="s">
         <v>243</v>
-      </c>
-      <c r="L158" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="M158" s="26" t="s">
-        <v>244</v>
       </c>
       <c r="N158" s="23"/>
     </row>
@@ -45564,19 +45561,19 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C159" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D159" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E159" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F159" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G159" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H159" s="28" t="s">
         <v>26</v>
@@ -45634,13 +45631,13 @@
         <v>23</v>
       </c>
       <c r="K161" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L161" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M161" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N161" s="23"/>
     </row>
@@ -45664,13 +45661,13 @@
         <v>23</v>
       </c>
       <c r="K162" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L162" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M162" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N162" s="23"/>
     </row>
@@ -45686,19 +45683,19 @@
       <c r="G163" s="23"/>
       <c r="H163" s="23"/>
       <c r="I163" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J163" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K163" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L163" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M163" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N163" s="23"/>
     </row>
@@ -45738,13 +45735,13 @@
         <v>30</v>
       </c>
       <c r="E165" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F165" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G165" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H165" s="28" t="s">
         <v>44</v>
@@ -45772,7 +45769,7 @@
       <c r="G166" s="23"/>
       <c r="H166" s="23"/>
       <c r="I166" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J166" s="26" t="s">
         <v>23</v>
@@ -45784,7 +45781,7 @@
         <v>23</v>
       </c>
       <c r="M166" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N166" s="23"/>
     </row>
@@ -45799,7 +45796,7 @@
       <c r="F167" s="23"/>
       <c r="G167" s="23"/>
       <c r="H167" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I167" s="29"/>
       <c r="J167" s="26" t="s">
@@ -45818,19 +45815,19 @@
         <v>0.75</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D168" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E168" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F168" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G168" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H168" s="23"/>
       <c r="I168" s="25" t="s">
@@ -45840,13 +45837,13 @@
         <v>23</v>
       </c>
       <c r="K168" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L168" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M168" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N168" s="23"/>
     </row>
@@ -45862,19 +45859,19 @@
       <c r="G169" s="23"/>
       <c r="H169" s="23"/>
       <c r="I169" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J169" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K169" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L169" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M169" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N169" s="23"/>
     </row>
@@ -45892,13 +45889,13 @@
       <c r="G170" s="23"/>
       <c r="H170" s="23"/>
       <c r="I170" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J170" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K170" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L170" s="26" t="s">
         <v>23</v>
@@ -45919,7 +45916,7 @@
       <c r="F171" s="23"/>
       <c r="G171" s="23"/>
       <c r="H171" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I171" s="29"/>
       <c r="J171" s="26" t="s">
@@ -45944,13 +45941,13 @@
         <v>30</v>
       </c>
       <c r="E172" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F172" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G172" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H172" s="23"/>
       <c r="I172" s="25" t="s">
@@ -45978,19 +45975,19 @@
       <c r="G173" s="23"/>
       <c r="H173" s="23"/>
       <c r="I173" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J173" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K173" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L173" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M173" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N173" s="23"/>
     </row>
@@ -46012,7 +46009,7 @@
         <v>23</v>
       </c>
       <c r="K174" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L174" s="26" t="s">
         <v>23</v>
@@ -46034,19 +46031,19 @@
         <v>30</v>
       </c>
       <c r="E175" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F175" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G175" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H175" s="38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I175" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J175" s="26" t="s">
         <v>23</v>
@@ -46076,13 +46073,13 @@
         <v>23</v>
       </c>
       <c r="K176" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L176" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M176" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N176" s="23"/>
     </row>
@@ -46100,19 +46097,19 @@
       <c r="G177" s="23"/>
       <c r="H177" s="23"/>
       <c r="I177" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J177" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K177" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L177" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M177" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N177" s="23"/>
     </row>
@@ -46128,19 +46125,19 @@
       <c r="G178" s="23"/>
       <c r="H178" s="23"/>
       <c r="I178" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J178" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K178" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L178" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M178" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N178" s="23"/>
     </row>
@@ -46150,19 +46147,19 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D179" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E179" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F179" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G179" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H179" s="28" t="s">
         <v>29</v>
@@ -46198,13 +46195,13 @@
         <v>23</v>
       </c>
       <c r="K180" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L180" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M180" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N180" s="23"/>
     </row>
@@ -46220,7 +46217,7 @@
       <c r="G181" s="23"/>
       <c r="H181" s="23"/>
       <c r="I181" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J181" s="26" t="s">
         <v>23</v>
@@ -46232,7 +46229,7 @@
         <v>23</v>
       </c>
       <c r="M181" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N181" s="23"/>
     </row>
@@ -46242,25 +46239,25 @@
         <v>0.75</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D182" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E182" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F182" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G182" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H182" s="28" t="s">
         <v>29</v>
       </c>
       <c r="I182" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J182" s="26" t="s">
         <v>23</v>
@@ -46284,19 +46281,19 @@
       <c r="G183" s="23"/>
       <c r="H183" s="23"/>
       <c r="I183" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J183" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K183" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L183" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M183" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N183" s="23"/>
     </row>
@@ -46320,13 +46317,13 @@
         <v>23</v>
       </c>
       <c r="K184" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L184" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M184" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N184" s="23"/>
     </row>
@@ -46342,19 +46339,19 @@
       <c r="G185" s="23"/>
       <c r="H185" s="23"/>
       <c r="I185" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J185" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K185" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L185" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M185" s="26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N185" s="23"/>
     </row>
@@ -46364,22 +46361,22 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C186" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D186" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E186" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F186" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G186" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H186" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I186" s="25" t="s">
         <v>32</v>
@@ -46412,13 +46409,13 @@
         <v>23</v>
       </c>
       <c r="K187" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L187" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M187" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N187" s="23"/>
     </row>
@@ -46428,19 +46425,19 @@
         <v>0.75</v>
       </c>
       <c r="C188" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D188" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E188" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F188" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G188" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H188" s="28" t="s">
         <v>44</v>
@@ -46478,13 +46475,13 @@
         <v>23</v>
       </c>
       <c r="K189" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L189" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M189" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N189" s="23"/>
     </row>
@@ -46500,13 +46497,13 @@
         <v>30</v>
       </c>
       <c r="E190" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F190" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G190" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H190" s="28" t="s">
         <v>32</v>
@@ -46535,7 +46532,7 @@
       <c r="F191" s="23"/>
       <c r="G191" s="23"/>
       <c r="H191" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I191" s="25" t="s">
         <v>26</v>
@@ -46544,13 +46541,13 @@
         <v>23</v>
       </c>
       <c r="K191" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L191" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M191" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N191" s="23"/>
     </row>
@@ -46560,23 +46557,23 @@
         <v>0.75</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D192" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E192" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F192" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G192" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H192" s="23"/>
       <c r="I192" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J192" s="26" t="s">
         <v>23</v>
@@ -46600,13 +46597,13 @@
       <c r="G193" s="23"/>
       <c r="H193" s="23"/>
       <c r="I193" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J193" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K193" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L193" s="26" t="s">
         <v>23</v>
@@ -46634,13 +46631,13 @@
         <v>23</v>
       </c>
       <c r="K194" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L194" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M194" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N194" s="23"/>
     </row>
@@ -46652,25 +46649,25 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D195" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E195" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F195" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G195" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H195" s="28" t="s">
         <v>26</v>
       </c>
       <c r="I195" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J195" s="26" t="s">
         <v>23</v>
@@ -46700,13 +46697,13 @@
         <v>23</v>
       </c>
       <c r="K196" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L196" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M196" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N196" s="23"/>
     </row>
@@ -46728,13 +46725,13 @@
         <v>23</v>
       </c>
       <c r="K197" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L197" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M197" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N197" s="23"/>
     </row>
@@ -46750,19 +46747,19 @@
         <v>30</v>
       </c>
       <c r="E198" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F198" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G198" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H198" s="28" t="s">
         <v>26</v>
       </c>
       <c r="I198" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J198" s="26" t="s">
         <v>23</v>
@@ -46786,19 +46783,19 @@
       <c r="G199" s="23"/>
       <c r="H199" s="23"/>
       <c r="I199" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J199" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K199" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L199" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M199" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N199" s="23"/>
     </row>
@@ -46820,13 +46817,13 @@
         <v>23</v>
       </c>
       <c r="K200" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L200" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M200" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N200" s="23"/>
     </row>
@@ -46844,7 +46841,7 @@
       <c r="G201" s="23"/>
       <c r="H201" s="23"/>
       <c r="I201" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J201" s="26" t="s">
         <v>23</v>
@@ -46868,13 +46865,13 @@
         <v>30</v>
       </c>
       <c r="E202" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F202" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G202" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H202" s="23"/>
       <c r="I202" s="29"/>
@@ -46899,7 +46896,7 @@
       <c r="F203" s="23"/>
       <c r="G203" s="23"/>
       <c r="H203" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I203" s="29"/>
       <c r="J203" s="26" t="s">
@@ -46918,19 +46915,19 @@
         <v>0.75</v>
       </c>
       <c r="C204" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D204" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E204" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F204" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G204" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H204" s="23"/>
       <c r="I204" s="25" t="s">
@@ -46988,7 +46985,7 @@
         <v>23</v>
       </c>
       <c r="K206" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L206" s="26" t="s">
         <v>23</v>
@@ -47016,13 +47013,13 @@
         <v>23</v>
       </c>
       <c r="K207" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L207" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M207" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N207" s="23"/>
     </row>
@@ -47040,16 +47037,16 @@
         <v>30</v>
       </c>
       <c r="E208" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F208" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G208" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H208" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I208" s="25" t="s">
         <v>29</v>
@@ -47070,22 +47067,22 @@
         <v>0.75</v>
       </c>
       <c r="C209" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D209" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E209" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F209" s="28" t="s">
         <v>30</v>
       </c>
       <c r="G209" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H209" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I209" s="25" t="s">
         <v>44</v>
@@ -47118,13 +47115,13 @@
         <v>23</v>
       </c>
       <c r="K210" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L210" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M210" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N210" s="23"/>
     </row>
@@ -47140,19 +47137,19 @@
       <c r="G211" s="23"/>
       <c r="H211" s="23"/>
       <c r="I211" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J211" s="26" t="s">
         <v>23</v>
       </c>
       <c r="K211" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L211" s="26" t="s">
         <v>23</v>
       </c>
       <c r="M211" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N211" s="23"/>
     </row>
